--- a/tests/resources/IRR.xlsx
+++ b/tests/resources/IRR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradb\Documents\Python\koala_xlcalculator\tests\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8A75A2-B8D2-49F5-950C-88CA49531164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E499BE-58D1-4455-B7B5-01B3B078B181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="158" windowWidth="21480" windowHeight="12742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="158" windowWidth="21480" windowHeight="12742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,15 +32,11 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -75,7 +71,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,7 +355,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
